--- a/InputData/trans/AVPC/Annual Vehicle Parking Costs.xlsx
+++ b/InputData/trans/AVPC/Annual Vehicle Parking Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CO/trans/AVPC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\trans\AVPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9D69898-F4E3-1640-BE32-E6342CC198BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE5C0E1-FFC8-4760-BC76-F4AD6505844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10640" yWindow="500" windowWidth="18160" windowHeight="15980" xr2:uid="{7A96142A-95FE-491D-9737-978D460925CE}"/>
+    <workbookView xWindow="12870" yWindow="1470" windowWidth="18165" windowHeight="21135" xr2:uid="{7A96142A-95FE-491D-9737-978D460925CE}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>AVPC Annual Vehicle Parking Costs</t>
   </si>
@@ -180,9 +180,6 @@
   </si>
   <si>
     <t>(as non-free parking, and parking rates, would rise in situations where demand</t>
-  </si>
-  <si>
-    <t>Colorado</t>
   </si>
 </sst>
 </file>
@@ -190,7 +187,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -250,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -261,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -270,7 +267,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -641,27 +637,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A3C504-1517-4439-8CB6-64CD86FC1AAC}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="11">
-        <v>44634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -669,127 +659,127 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.93700000000000006</v>
       </c>
@@ -813,15 +803,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
@@ -832,7 +822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -847,7 +837,7 @@
         <v>50.420560747663551</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -862,7 +852,7 @@
         <v>28.294117647058822</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -877,7 +867,7 @@
         <v>33.746987951807228</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -892,7 +882,7 @@
         <v>33.384615384615387</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -907,7 +897,7 @@
         <v>21.96551724137931</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -922,7 +912,7 @@
         <v>37.428571428571431</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -937,7 +927,7 @@
         <v>38.584905660377359</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -952,7 +942,7 @@
         <v>17.440000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -967,7 +957,7 @@
         <v>15.0625</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -982,7 +972,7 @@
         <v>23.285714285714285</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1009,13 +999,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="3" width="13.5" customWidth="1"/>
+    <col min="2" max="3" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
@@ -1026,7 +1016,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1038,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
@@ -1049,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -1060,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1071,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1082,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
